--- a/data/hotels_by_city/Houston/Houston_shard_13.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d11637327-Reviews-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Suites-Spring-N-Houston.h16458132.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530074436410&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=41ffdcf7-6973-49a4-9dd7-3b2078a06a3c&amp;mctc=9&amp;exp_dp=65&amp;exp_ts=1530074437046&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,249 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r570416288-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>11637327</t>
+  </si>
+  <si>
+    <t>570416288</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Easter wknd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed my stay very nice although front desk would not honor my Arrp Card discount I don't understand why she would not give me a reason and became very defensive. Maybe she didn't understand what it was. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r564279792-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>564279792</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>The rooms were roomy and clean, we never seen staff except for check in. The breakfast is poor, nothing nutritious just machines and sugar, and you eat in the lobby. Not inviting, not friendly, noise from traffic is constant.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r562170808-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>562170808</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>GOOD VALUE</t>
+  </si>
+  <si>
+    <t>Staff was helpful, rooms were comfortable, hotel was convenient and price was right. I would recommend this hotel to anyone who wants to be next to Hwy 45. This by far the best value you can get for the Spring area.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r532376114-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>532376114</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>No repeat</t>
+  </si>
+  <si>
+    <t>Front desk lady who checked me in was very nice but she barely spoke English and it was hard to understand her. She lied and said she had nothing on the first floor. When I reminded her my reservation was "accessible handicap" she suddenly had a first floor room.The room was ok but the location is TERRIBLE!!  It is close to a major freeway and it was obvious they spent no money to soundproof the rooms. I slept little.At 5am, I went to check out. The night clerk spoke thick English and told me to call Expedia if I wantd a receipt!!. I didnt book thru Expedia so why should I have to call them? Ive never had a hotel not give me a receipt!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Front desk lady who checked me in was very nice but she barely spoke English and it was hard to understand her. She lied and said she had nothing on the first floor. When I reminded her my reservation was "accessible handicap" she suddenly had a first floor room.The room was ok but the location is TERRIBLE!!  It is close to a major freeway and it was obvious they spent no money to soundproof the rooms. I slept little.At 5am, I went to check out. The night clerk spoke thick English and told me to call Expedia if I wantd a receipt!!. I didnt book thru Expedia so why should I have to call them? Ive never had a hotel not give me a receipt!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r507747246-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>507747246</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>So my daughter stayed here, booked on Hotels.com so we booked the same. Paid less than $60 total. What a great value. Staff is friendly. Room is huge and clean. Bed is comfortable. Shower actually has pressure. Wood floors! Starbucks nearby. Waitr delivers here. A win-win!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r507746126-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>507746126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely hotel. </t>
+  </si>
+  <si>
+    <t>We stayed here over night. The staff are very welcoming and pleased to help. Close to highways 10 and 90. Spacious and clean rooms. . Well worth the value.  Parking is available but not a big car park .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r478197485-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>478197485</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This hotel is great. You can tell the hotel is either new or renovated. The design of the room was amazing. I was completely thrilled to see there were no carpet, but wooden type floors. The only thing I didn't like was that breakfast ends as 9am. So we missed it and had to eat out.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r476520975-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>476520975</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Ill be passing on this hotel in the future</t>
+  </si>
+  <si>
+    <t>The room was descent and clean. However the bed was a bit uncomfortable. If you like to sleep in you don't want to stay here. The housekeeping cart is pretty loud rolling around outside. There is no way to get rest through that. There are a couple other issues i could nit pick about but the biggest issue i had was I found the staff to be rude and very cold. Any request I had seemed like it was a big inconvenience to them and as they don't speak English very well it is difficult to communicate your needs to them. I could go on and on about the poor service but I'll just leave it at that.  If customer service is important to you I would not risk a stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was descent and clean. However the bed was a bit uncomfortable. If you like to sleep in you don't want to stay here. The housekeeping cart is pretty loud rolling around outside. There is no way to get rest through that. There are a couple other issues i could nit pick about but the biggest issue i had was I found the staff to be rude and very cold. Any request I had seemed like it was a big inconvenience to them and as they don't speak English very well it is difficult to communicate your needs to them. I could go on and on about the poor service but I'll just leave it at that.  If customer service is important to you I would not risk a stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r469672867-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>469672867</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Clean, new, but cold atmosphere</t>
+  </si>
+  <si>
+    <t>The hotel is on the corner of Louetta and I-45. The room and lobby are fastidiously clean. The "coldness" in the title refers to two aspects: the lighting in the room is all in-ceiling flourescent light, which casts a bright blue cast, especially over the blue walls. It's not cozy, and there is no option for a soft light at night before bed. The second part is the staff at the front desk. They did meet every need, such as: EVERY time I left my key card became deprogrammed so I had to have it re-programmed, and I needed an extra blanket since the beds ONLY have a sheet and a top spread, both being rather thin.  But the atmosphere was not very friendly or warm, the blanket request was at first said to be almost impossible because "we are booked out."  At the end of the day, this is a fine option in a relatively safe area given it's along I-45, the parking lot is well-lit, the rooms are outfitted with microwaves and fridges, it's modern.  The food was not interesting -- just cereal and waffles and fake juice and regular drip coffee and a powdered cappucino machine.  No fruit. No tea.  But there is a Starbucks sharing the parking lot with a long line every morning for the drive-through.  The little sofa and coffee table and desk made a practical place to put stuff down when arriving back...The hotel is on the corner of Louetta and I-45. The room and lobby are fastidiously clean. The "coldness" in the title refers to two aspects: the lighting in the room is all in-ceiling flourescent light, which casts a bright blue cast, especially over the blue walls. It's not cozy, and there is no option for a soft light at night before bed. The second part is the staff at the front desk. They did meet every need, such as: EVERY time I left my key card became deprogrammed so I had to have it re-programmed, and I needed an extra blanket since the beds ONLY have a sheet and a top spread, both being rather thin.  But the atmosphere was not very friendly or warm, the blanket request was at first said to be almost impossible because "we are booked out."  At the end of the day, this is a fine option in a relatively safe area given it's along I-45, the parking lot is well-lit, the rooms are outfitted with microwaves and fridges, it's modern.  The food was not interesting -- just cereal and waffles and fake juice and regular drip coffee and a powdered cappucino machine.  No fruit. No tea.  But there is a Starbucks sharing the parking lot with a long line every morning for the drive-through.  The little sofa and coffee table and desk made a practical place to put stuff down when arriving back at the end of the day. Fine facilities.Three stories; higher is safer. There is an elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The hotel is on the corner of Louetta and I-45. The room and lobby are fastidiously clean. The "coldness" in the title refers to two aspects: the lighting in the room is all in-ceiling flourescent light, which casts a bright blue cast, especially over the blue walls. It's not cozy, and there is no option for a soft light at night before bed. The second part is the staff at the front desk. They did meet every need, such as: EVERY time I left my key card became deprogrammed so I had to have it re-programmed, and I needed an extra blanket since the beds ONLY have a sheet and a top spread, both being rather thin.  But the atmosphere was not very friendly or warm, the blanket request was at first said to be almost impossible because "we are booked out."  At the end of the day, this is a fine option in a relatively safe area given it's along I-45, the parking lot is well-lit, the rooms are outfitted with microwaves and fridges, it's modern.  The food was not interesting -- just cereal and waffles and fake juice and regular drip coffee and a powdered cappucino machine.  No fruit. No tea.  But there is a Starbucks sharing the parking lot with a long line every morning for the drive-through.  The little sofa and coffee table and desk made a practical place to put stuff down when arriving back...The hotel is on the corner of Louetta and I-45. The room and lobby are fastidiously clean. The "coldness" in the title refers to two aspects: the lighting in the room is all in-ceiling flourescent light, which casts a bright blue cast, especially over the blue walls. It's not cozy, and there is no option for a soft light at night before bed. The second part is the staff at the front desk. They did meet every need, such as: EVERY time I left my key card became deprogrammed so I had to have it re-programmed, and I needed an extra blanket since the beds ONLY have a sheet and a top spread, both being rather thin.  But the atmosphere was not very friendly or warm, the blanket request was at first said to be almost impossible because "we are booked out."  At the end of the day, this is a fine option in a relatively safe area given it's along I-45, the parking lot is well-lit, the rooms are outfitted with microwaves and fridges, it's modern.  The food was not interesting -- just cereal and waffles and fake juice and regular drip coffee and a powdered cappucino machine.  No fruit. No tea.  But there is a Starbucks sharing the parking lot with a long line every morning for the drive-through.  The little sofa and coffee table and desk made a practical place to put stuff down when arriving back at the end of the day. Fine facilities.Three stories; higher is safer. There is an elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r451123845-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>451123845</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stuffs; clean and cozy rooms; excellent rates; the best I have stayed so far!</t>
+  </si>
+  <si>
+    <t>Excellent. I drove 26 hours from NY with my family, and stayed here for four days. The reception stuffs were excellent, specially Mr. PK was phenomenal. He gave us excellent rates, we felt at home. Very clean and cozy rooms, beds are excellent, fridge and oven with premium channel TV. Room service every day. The rate I got is way less than the service I got, amazing! I would always be coming back here if I need to stay. I recommend everyone travelling to this area to use this hotel. Very quiet, on site parking, 24 hours service, amenities close by. The rooms are new, renovated and modern. If I had options for more stars, I would put it in. Definitely the best ever stay for me and my family, strongly strongly recommended for travelers.Only suggestion is that, the breakfast options may be improved, like add some fruits (banana/apple/orange), bread or bagel with butter, jelly etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Excellent. I drove 26 hours from NY with my family, and stayed here for four days. The reception stuffs were excellent, specially Mr. PK was phenomenal. He gave us excellent rates, we felt at home. Very clean and cozy rooms, beds are excellent, fridge and oven with premium channel TV. Room service every day. The rate I got is way less than the service I got, amazing! I would always be coming back here if I need to stay. I recommend everyone travelling to this area to use this hotel. Very quiet, on site parking, 24 hours service, amenities close by. The rooms are new, renovated and modern. If I had options for more stars, I would put it in. Definitely the best ever stay for me and my family, strongly strongly recommended for travelers.Only suggestion is that, the breakfast options may be improved, like add some fruits (banana/apple/orange), bread or bagel with butter, jelly etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r440341808-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>440341808</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Great Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost new Hotel. Opened couple months ago. Clean, Affordable, &amp; great area. Breakfast was okay. Orange Juice was VERY diluted, coffee machine is still down, and not very many choices for breakfast. Overall very nice place. Reason for 4 stars and not 5 is bc I noticed a drug deal downstairs (late at night) and a man with a beer and smelled like cigarettes coming out of the elevator. Hopefully management will hire security guard to scare off those peeps. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r433676421-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>433676421</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome </t>
+  </si>
+  <si>
+    <t>This hotel is affordable and very, very, very, very clean. P.K. is awesome as the hotel desk personnel, and management. They do have continental breakfast but it's small, and they do have two different types of flavored ice drinks that they offer through out the day. We came here for one week, and because of the awesomeness of this particular hotel we are staying another week. P.K. has really made us feel welcome, and we are grateful. The area is very safe and parking is great. We make sure to check for safety while visiting this area, and this particular American Best Value Inn &amp; Suites-Spring Texas is very safe. I give this place 10 stars. Everything is new in the room, we checked everything, and honestly speaking, if you ever in the area I recommend this hotel. It's very, very, very, very clean and safe. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This hotel is affordable and very, very, very, very clean. P.K. is awesome as the hotel desk personnel, and management. They do have continental breakfast but it's small, and they do have two different types of flavored ice drinks that they offer through out the day. We came here for one week, and because of the awesomeness of this particular hotel we are staying another week. P.K. has really made us feel welcome, and we are grateful. The area is very safe and parking is great. We make sure to check for safety while visiting this area, and this particular American Best Value Inn &amp; Suites-Spring Texas is very safe. I give this place 10 stars. Everything is new in the room, we checked everything, and honestly speaking, if you ever in the area I recommend this hotel. It's very, very, very, very clean and safe. More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +784,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +816,795 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_13.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,96 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r610171812-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>11637327</t>
+  </si>
+  <si>
+    <t>610171812</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Super awesome stay!</t>
+  </si>
+  <si>
+    <t>I accidentally booked my resorvation for a day later than I needed it without realizing. When I showed up and told them who I had a reservation they realized the day was wrong and just canceled it and rebooked me with no extra charge. The staff was super nice, good coffee the next morning, and they made me feel very welcome. I will definitely stay here next time I’m in Houston!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r603437730-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>603437730</t>
+  </si>
+  <si>
     <t>08/06/2018</t>
   </si>
   <si>
+    <t>Amazing spot for a weekend get-away!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have to say, I was VERY impressed with this hotel. The room were very nice and very clean. Great location with lots of shopping and restaurants near by. The price was PERFECT as well. I highly recommend Americas Best Value Inn &amp; Suites. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r601819812-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>601819812</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE NASTY ROOMS</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER! NO CUSTOMER SERVICE! NASTY ROOMS!If I could give this place no stars I would! This is an Indian ran hotel of course. VERY UNPROFESSIONAL, but what do you expect. It’s a motel not a hotel and there are no Suites here. They should be named motel. The rooms were disgusting. When I checked in the bed had dirty sheets! I changed rooms, and that one was no better. There was roaches crawling on the walls. I ended up moving again. They would not refund my money. I stayed in the final room, each room was not cleaned properly. In the morning the Indian lady that works is calling your room at 10:30 am to kick you out. Check out time is all she says. And check out is at 11am.Don’t recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER! NO CUSTOMER SERVICE! NASTY ROOMS!If I could give this place no stars I would! This is an Indian ran hotel of course. VERY UNPROFESSIONAL, but what do you expect. It’s a motel not a hotel and there are no Suites here. They should be named motel. The rooms were disgusting. When I checked in the bed had dirty sheets! I changed rooms, and that one was no better. There was roaches crawling on the walls. I ended up moving again. They would not refund my money. I stayed in the final room, each room was not cleaned properly. In the morning the Indian lady that works is calling your room at 10:30 am to kick you out. Check out time is all she says. And check out is at 11am.Don’t recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r581291138-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>581291138</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>VERY HAPPY WITH OUR STAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed 3 nights at Americas Best Value Inn &amp; Suites in Spring, Texas.  We found all the staff from Manager to Cleaning Staff to be very courteous and attentive.  We were very comfortable in our very, very clean room.  Summary:  Our 3 night stay was very nice, very comfortable, quiet and the room was very, very clean.  </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r570416288-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>11637327</t>
-  </si>
-  <si>
     <t>570416288</t>
   </si>
   <si>
@@ -213,7 +291,58 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r549307900-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>549307900</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Liars and cheats</t>
+  </si>
+  <si>
+    <t>I paid for jacuzzi suite even showed that on my conformation. However when I arrived I noticed or my reservation sheet the hotel had the desk clerk had scratched off the word jacuzzi suite. She then told me I would have to pay double for that room if I wanted the jacuzzi. Even though everything I had showed that it was 86.00 for that room. She did not honor what the website said and worse she was rude . If I had not been driving all day I would have gone another place so I paid 86.00 for a room that on line would have been a regular room for 65.00. These people are crooks and horrible humansMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>PINTU S, Manager at Americas Best Value Inn &amp; Suites - Spring / N. Houston, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>I paid for jacuzzi suite even showed that on my conformation. However when I arrived I noticed or my reservation sheet the hotel had the desk clerk had scratched off the word jacuzzi suite. She then told me I would have to pay double for that room if I wanted the jacuzzi. Even though everything I had showed that it was 86.00 for that room. She did not honor what the website said and worse she was rude . If I had not been driving all day I would have gone another place so I paid 86.00 for a room that on line would have been a regular room for 65.00. These people are crooks and horrible humansMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r541822603-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>541822603</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Worst stay of my life.</t>
+  </si>
+  <si>
+    <t>Harassed by front desk right after check-in. Front desk clerk very unprofessional. Constantly staring at my girlfriend and walked up to car as we were leaving. Asking weird questions and made us feel very uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>PINTU S, Manager at Americas Best Value Inn &amp; Suites - Spring / N. Houston, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Harassed by front desk right after check-in. Front desk clerk very unprofessional. Constantly staring at my girlfriend and walked up to car as we were leaving. Asking weird questions and made us feel very uncomfortable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r532376114-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
@@ -258,9 +387,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r507746126-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
   </si>
   <si>
@@ -273,6 +399,42 @@
     <t>We stayed here over night. The staff are very welcoming and pleased to help. Close to highways 10 and 90. Spacious and clean rooms. . Well worth the value.  Parking is available but not a big car park .</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r499017289-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>499017289</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Great location and price, but not many amenities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location and price were great. It's about 25 min to downtown Houston. About 1.5 hours to Galveston.  The staff was friendly and helpful. There are no kitchen utensils so you will need to bring your own.  </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r480922574-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>480922574</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Great stay! Thank you 😊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks for a lovely experience during our holiday in Houston. We stayed a week (great value) then returned for another 2 days before we went home to AU.  Friendly, helpful hosts; clean and very comfortable rooms. recommended. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r478197485-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
   </si>
   <si>
@@ -288,12 +450,6 @@
     <t>This hotel is great. You can tell the hotel is either new or renovated. The design of the room was amazing. I was completely thrilled to see there were no carpet, but wooden type floors. The only thing I didn't like was that breakfast ends as 9am. So we missed it and had to eat out.</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r476520975-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
   </si>
   <si>
@@ -331,6 +487,39 @@
   </si>
   <si>
     <t>The hotel is on the corner of Louetta and I-45. The room and lobby are fastidiously clean. The "coldness" in the title refers to two aspects: the lighting in the room is all in-ceiling flourescent light, which casts a bright blue cast, especially over the blue walls. It's not cozy, and there is no option for a soft light at night before bed. The second part is the staff at the front desk. They did meet every need, such as: EVERY time I left my key card became deprogrammed so I had to have it re-programmed, and I needed an extra blanket since the beds ONLY have a sheet and a top spread, both being rather thin.  But the atmosphere was not very friendly or warm, the blanket request was at first said to be almost impossible because "we are booked out."  At the end of the day, this is a fine option in a relatively safe area given it's along I-45, the parking lot is well-lit, the rooms are outfitted with microwaves and fridges, it's modern.  The food was not interesting -- just cereal and waffles and fake juice and regular drip coffee and a powdered cappucino machine.  No fruit. No tea.  But there is a Starbucks sharing the parking lot with a long line every morning for the drive-through.  The little sofa and coffee table and desk made a practical place to put stuff down when arriving back...The hotel is on the corner of Louetta and I-45. The room and lobby are fastidiously clean. The "coldness" in the title refers to two aspects: the lighting in the room is all in-ceiling flourescent light, which casts a bright blue cast, especially over the blue walls. It's not cozy, and there is no option for a soft light at night before bed. The second part is the staff at the front desk. They did meet every need, such as: EVERY time I left my key card became deprogrammed so I had to have it re-programmed, and I needed an extra blanket since the beds ONLY have a sheet and a top spread, both being rather thin.  But the atmosphere was not very friendly or warm, the blanket request was at first said to be almost impossible because "we are booked out."  At the end of the day, this is a fine option in a relatively safe area given it's along I-45, the parking lot is well-lit, the rooms are outfitted with microwaves and fridges, it's modern.  The food was not interesting -- just cereal and waffles and fake juice and regular drip coffee and a powdered cappucino machine.  No fruit. No tea.  But there is a Starbucks sharing the parking lot with a long line every morning for the drive-through.  The little sofa and coffee table and desk made a practical place to put stuff down when arriving back at the end of the day. Fine facilities.Three stories; higher is safer. There is an elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r469477117-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>469477117</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean big rooms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very big so I didn't Feel crowded and the room was clean just put dated but overall pleasant stay breakfast was good. Bananas muffins yogurt pancakes cereal and coffee was strong and the staff is very helpful and friendly. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r460261009-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>460261009</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>The manager/owner was very rude</t>
+  </si>
+  <si>
+    <t>I would definitely not recommend this room to anybody! I stayed there for about a month and was very satisfied with the room but Not the Owner Pk and his wife's rude and disrespectful attitudes. The manager was very disrespectful to me and my son on a daily basis. The website claims they are kid friendly but defiantly not! They would make me upset in a daily basis due to their disrespectful ways and mouth!!! I would not recommend this room to anyone!!!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d11637327-r451123845-Americas_Best_Value_Inn_Suites_Spring_N_Houston-Spring_Texas.html</t>
@@ -925,7 +1114,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -934,20 +1123,20 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -992,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -1045,37 +1234,27 @@
         <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1112,7 +1291,7 @@
         <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>71</v>
@@ -1121,20 +1300,20 @@
         <v>72</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1142,7 +1321,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1158,7 +1337,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1167,39 +1346,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
       </c>
-      <c r="O6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1215,7 +1404,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1224,10 +1413,10 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
       </c>
       <c r="K7" t="s">
         <v>83</v>
@@ -1236,14 +1425,10 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1299,14 +1484,24 @@
         <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1329,7 +1524,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1338,35 +1533,53 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>96</v>
       </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1382,7 +1595,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1391,43 +1604,53 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1443,7 +1666,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1452,37 +1675,41 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
       <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1490,7 +1717,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1506,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1515,25 +1742,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1547,7 +1774,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1563,7 +1790,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1572,25 +1799,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
-        <v>120</v>
-      </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>122</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>123</v>
-      </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1604,7 +1831,593 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65780</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
